--- a/01_要件/インターフェース.xlsx
+++ b/01_要件/インターフェース.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaoria\Documents\Git\java_practice\01_要件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C5FD8-4A2D-409B-8B8C-B9D55817099C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8E258B-C071-49FE-9277-D73CF984CAAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Contractor.csv</t>
     <phoneticPr fontId="1"/>
@@ -299,6 +299,40 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認情報が追加された日付</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認されているかどうかを示すフラグ
+0:未承認
+1:承認済み</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ミショウニン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ショウニンズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,7 +696,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -819,7 +853,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="C14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -828,12 +862,12 @@
         <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="56.25">
       <c r="C15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
@@ -842,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:6">
